--- a/output/NEO_08771538000101.xlsx
+++ b/output/NEO_08771538000101.xlsx
@@ -2121,10 +2121,10 @@
         <v>44165</v>
       </c>
       <c r="B158">
-        <v>3.0341142</v>
+        <v>3.0247261</v>
       </c>
       <c r="C158">
-        <v>0.01061721786960157</v>
+        <v>0.008265332168626127</v>
       </c>
     </row>
   </sheetData>

--- a/output/NEO_08771538000101.xlsx
+++ b/output/NEO_08771538000101.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>NEO MULTI ESTRATÉGIA 30 FEEDER FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1745 +383,1274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>39416</v>
       </c>
       <c r="B2">
-        <v>0.007320400000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>39447</v>
       </c>
       <c r="B3">
-        <v>0.01399930000000005</v>
-      </c>
-      <c r="C3">
         <v>0.006630363090035729</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>39478</v>
       </c>
       <c r="B4">
-        <v>0.0232192</v>
-      </c>
-      <c r="C4">
         <v>0.009092609827245468</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>39507</v>
       </c>
       <c r="B5">
-        <v>0.0362228</v>
-      </c>
-      <c r="C5">
         <v>0.01270851837025733</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>39538</v>
       </c>
       <c r="B6">
-        <v>0.03925380000000001</v>
-      </c>
-      <c r="C6">
         <v>0.002925046621247818</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>39568</v>
       </c>
       <c r="B7">
-        <v>0.04551850000000002</v>
-      </c>
-      <c r="C7">
         <v>0.006028075143915679</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>39599</v>
       </c>
       <c r="B8">
-        <v>0.03739010000000009</v>
-      </c>
-      <c r="C8">
         <v>-0.007774515706799989</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>39629</v>
       </c>
       <c r="B9">
-        <v>0.05079129999999998</v>
-      </c>
-      <c r="C9">
         <v>0.0129181876711566</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>39660</v>
       </c>
       <c r="B10">
-        <v>0.0450801999999999</v>
-      </c>
-      <c r="C10">
         <v>-0.0054350469022727</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>39691</v>
       </c>
       <c r="B11">
-        <v>0.0594349999999999</v>
-      </c>
-      <c r="C11">
         <v>0.01373559655995771</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>39721</v>
       </c>
       <c r="B12">
-        <v>0.07768170000000008</v>
-      </c>
-      <c r="C12">
         <v>0.0172230481341471</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>39752</v>
       </c>
       <c r="B13">
-        <v>0.09237410000000001</v>
-      </c>
-      <c r="C13">
         <v>0.01363333904621378</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>39782</v>
       </c>
       <c r="B14">
-        <v>0.1295835000000001</v>
-      </c>
-      <c r="C14">
         <v>0.03406287278323439</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>39813</v>
       </c>
       <c r="B15">
-        <v>0.1585041</v>
-      </c>
-      <c r="C15">
         <v>0.02560288814416989</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>39844</v>
       </c>
       <c r="B16">
-        <v>0.1745265</v>
-      </c>
-      <c r="C16">
         <v>0.01383024885280948</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>39872</v>
       </c>
       <c r="B17">
-        <v>0.1970856000000001</v>
-      </c>
-      <c r="C17">
         <v>0.01920697404443406</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>39903</v>
       </c>
       <c r="B18">
-        <v>0.2172263000000001</v>
-      </c>
-      <c r="C18">
         <v>0.01682477844525065</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>39933</v>
       </c>
       <c r="B19">
-        <v>0.2289386</v>
-      </c>
-      <c r="C19">
         <v>0.009622122032690195</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>39964</v>
       </c>
       <c r="B20">
-        <v>0.2440392</v>
-      </c>
-      <c r="C20">
         <v>0.01228751379442383</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>39994</v>
       </c>
       <c r="B21">
-        <v>0.2550566999999999</v>
-      </c>
-      <c r="C21">
         <v>0.008856232183037216</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40025</v>
       </c>
       <c r="B22">
-        <v>0.2731066</v>
-      </c>
-      <c r="C22">
         <v>0.01438174068151676</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40056</v>
       </c>
       <c r="B23">
-        <v>0.2893650000000001</v>
-      </c>
-      <c r="C23">
         <v>0.01277065094156304</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40086</v>
       </c>
       <c r="B24">
-        <v>0.3006024</v>
-      </c>
-      <c r="C24">
         <v>0.008715452955524672</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>40117</v>
       </c>
       <c r="B25">
-        <v>0.3124198</v>
-      </c>
-      <c r="C25">
         <v>0.009086097334588983</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>40147</v>
       </c>
       <c r="B26">
-        <v>0.3338128</v>
-      </c>
-      <c r="C26">
         <v>0.01630042460499292</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>40178</v>
       </c>
       <c r="B27">
-        <v>0.3454710000000001</v>
-      </c>
-      <c r="C27">
         <v>0.008740506913713864</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>40209</v>
       </c>
       <c r="B28">
-        <v>0.3580125999999999</v>
-      </c>
-      <c r="C28">
         <v>0.009321345461923647</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>40237</v>
       </c>
       <c r="B29">
-        <v>0.3702466</v>
-      </c>
-      <c r="C29">
         <v>0.009008752937933018</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>40268</v>
       </c>
       <c r="B30">
-        <v>0.3727122</v>
-      </c>
-      <c r="C30">
         <v>0.001799384140051874</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>40298</v>
       </c>
       <c r="B31">
-        <v>0.3871628</v>
-      </c>
-      <c r="C31">
         <v>0.01052704274064142</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>40329</v>
       </c>
       <c r="B32">
-        <v>0.3960219</v>
-      </c>
-      <c r="C32">
         <v>0.006386489026378062</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>40359</v>
       </c>
       <c r="B33">
-        <v>0.4088921999999999</v>
-      </c>
-      <c r="C33">
         <v>0.009219267978532342</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>40390</v>
       </c>
       <c r="B34">
-        <v>0.4060819</v>
-      </c>
-      <c r="C34">
         <v>-0.00199468774119127</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>40421</v>
       </c>
       <c r="B35">
-        <v>0.4243931999999999</v>
-      </c>
-      <c r="C35">
         <v>0.01302292562047769</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>40451</v>
       </c>
       <c r="B36">
-        <v>0.4374841</v>
-      </c>
-      <c r="C36">
         <v>0.009190510036133359</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>40482</v>
       </c>
       <c r="B37">
-        <v>0.4451734000000001</v>
-      </c>
-      <c r="C37">
         <v>0.005349137426980954</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>40512</v>
       </c>
       <c r="B38">
-        <v>0.4596304</v>
-      </c>
-      <c r="C38">
         <v>0.01000364385339503</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>40543</v>
       </c>
       <c r="B39">
-        <v>0.4807806999999999</v>
-      </c>
-      <c r="C39">
         <v>0.01449017504705297</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>40574</v>
       </c>
       <c r="B40">
-        <v>0.4859252999999999</v>
-      </c>
-      <c r="C40">
         <v>0.003474248415042069</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>40602</v>
       </c>
       <c r="B41">
-        <v>0.5028672999999999</v>
-      </c>
-      <c r="C41">
         <v>0.0114016498675944</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>40633</v>
       </c>
       <c r="B42">
-        <v>0.5045394000000001</v>
-      </c>
-      <c r="C42">
         <v>0.001112606548828499</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>40663</v>
       </c>
       <c r="B43">
-        <v>0.5173574999999999</v>
-      </c>
-      <c r="C43">
         <v>0.008519617365952525</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>40694</v>
       </c>
       <c r="B44">
-        <v>0.5263173000000001</v>
-      </c>
-      <c r="C44">
         <v>0.005904870803354001</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>40724</v>
       </c>
       <c r="B45">
-        <v>0.5425165000000001</v>
-      </c>
-      <c r="C45">
         <v>0.01061325846205108</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>40755</v>
       </c>
       <c r="B46">
-        <v>0.5613758</v>
-      </c>
-      <c r="C46">
         <v>0.01222631978328903</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>40786</v>
       </c>
       <c r="B47">
-        <v>0.5992697</v>
-      </c>
-      <c r="C47">
         <v>0.02426955765549854</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>40816</v>
       </c>
       <c r="B48">
-        <v>0.6392133</v>
-      </c>
-      <c r="C48">
         <v>0.02497615005148912</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>40847</v>
       </c>
       <c r="B49">
-        <v>0.6506987</v>
-      </c>
-      <c r="C49">
         <v>0.007006653740547319</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>40877</v>
       </c>
       <c r="B50">
-        <v>0.6792366000000001</v>
-      </c>
-      <c r="C50">
         <v>0.01728837612824208</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>40908</v>
       </c>
       <c r="B51">
-        <v>0.6867970000000001</v>
-      </c>
-      <c r="C51">
         <v>0.004502283954506581</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>40939</v>
       </c>
       <c r="B52">
-        <v>0.6909962999999999</v>
-      </c>
-      <c r="C52">
         <v>0.002489511185993276</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>40968</v>
       </c>
       <c r="B53">
-        <v>0.7050698</v>
-      </c>
-      <c r="C53">
         <v>0.008322608393643405</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>40999</v>
       </c>
       <c r="B54">
-        <v>0.7222055000000001</v>
-      </c>
-      <c r="C54">
         <v>0.01004985250457202</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>41029</v>
       </c>
       <c r="B55">
-        <v>0.7293999</v>
-      </c>
-      <c r="C55">
         <v>0.004177434109924771</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41060</v>
       </c>
       <c r="B56">
-        <v>0.7510516</v>
-      </c>
-      <c r="C56">
         <v>0.01251977636866997</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>41090</v>
       </c>
       <c r="B57">
-        <v>0.7573089</v>
-      </c>
-      <c r="C57">
         <v>0.003573452661246534</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>41121</v>
       </c>
       <c r="B58">
-        <v>0.7630481</v>
-      </c>
-      <c r="C58">
         <v>0.003265902767578321</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>41152</v>
       </c>
       <c r="B59">
-        <v>0.7858335999999999</v>
-      </c>
-      <c r="C59">
         <v>0.0129239241969632</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>41182</v>
       </c>
       <c r="B60">
-        <v>0.7811558999999999</v>
-      </c>
-      <c r="C60">
         <v>-0.00261933698637995</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>41213</v>
       </c>
       <c r="B61">
-        <v>0.7934197000000001</v>
-      </c>
-      <c r="C61">
         <v>0.006885304088204869</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>41243</v>
       </c>
       <c r="B62">
-        <v>0.8087192000000001</v>
-      </c>
-      <c r="C62">
         <v>0.008530908855300279</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>41274</v>
       </c>
       <c r="B63">
-        <v>0.8122782</v>
-      </c>
-      <c r="C63">
         <v>0.001967690728334137</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>41305</v>
       </c>
       <c r="B64">
-        <v>0.8359779000000001</v>
-      </c>
-      <c r="C64">
         <v>0.01307729685210579</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>41333</v>
       </c>
       <c r="B65">
-        <v>0.8351002000000001</v>
-      </c>
-      <c r="C65">
         <v>-0.000478055863308624</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>41364</v>
       </c>
       <c r="B66">
-        <v>0.8495360999999999</v>
-      </c>
-      <c r="C66">
         <v>0.007866545924849033</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>41394</v>
       </c>
       <c r="B67">
-        <v>0.8626654</v>
-      </c>
-      <c r="C67">
         <v>0.007098698965648742</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>41425</v>
       </c>
       <c r="B68">
-        <v>0.8697853</v>
-      </c>
-      <c r="C68">
         <v>0.00382242564875046</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>41455</v>
       </c>
       <c r="B69">
-        <v>0.8467946</v>
-      </c>
-      <c r="C69">
         <v>-0.01229590370616351</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>41486</v>
       </c>
       <c r="B70">
-        <v>0.8581958000000001</v>
-      </c>
-      <c r="C70">
         <v>0.006173507329943595</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>41517</v>
       </c>
       <c r="B71">
-        <v>0.8507232</v>
-      </c>
-      <c r="C71">
         <v>-0.004021427666556998</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>41547</v>
       </c>
       <c r="B72">
-        <v>0.8636759000000001</v>
-      </c>
-      <c r="C72">
         <v>0.00699872352602493</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>41578</v>
       </c>
       <c r="B73">
-        <v>0.8709553000000001</v>
-      </c>
-      <c r="C73">
         <v>0.003905936649178043</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>41608</v>
       </c>
       <c r="B74">
-        <v>0.8771069</v>
-      </c>
-      <c r="C74">
         <v>0.003287946002771935</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>41639</v>
       </c>
       <c r="B75">
-        <v>0.8946137999999999</v>
-      </c>
-      <c r="C75">
         <v>0.009326533294401029</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>41670</v>
       </c>
       <c r="B76">
-        <v>0.9204768999999999</v>
-      </c>
-      <c r="C76">
         <v>0.01365085591586013</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>41698</v>
       </c>
       <c r="B77">
-        <v>0.939187</v>
-      </c>
-      <c r="C77">
         <v>0.009742423873986716</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>41729</v>
       </c>
       <c r="B78">
-        <v>0.9452536</v>
-      </c>
-      <c r="C78">
         <v>0.003128424437663924</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>41759</v>
       </c>
       <c r="B79">
-        <v>0.9577563</v>
-      </c>
-      <c r="C79">
         <v>0.00642728536783066</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>41790</v>
       </c>
       <c r="B80">
-        <v>0.9620955</v>
-      </c>
-      <c r="C80">
         <v>0.002216414780532139</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>41820</v>
       </c>
       <c r="B81">
-        <v>0.9749702</v>
-      </c>
-      <c r="C81">
         <v>0.006561709152281381</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>41851</v>
       </c>
       <c r="B82">
-        <v>0.9906572</v>
-      </c>
-      <c r="C82">
         <v>0.00794290465749814</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>41882</v>
       </c>
       <c r="B83">
-        <v>0.977155</v>
-      </c>
-      <c r="C83">
         <v>-0.006782785102326994</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>41912</v>
       </c>
       <c r="B84">
-        <v>1.009743</v>
-      </c>
-      <c r="C84">
         <v>0.01648226871438996</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>41943</v>
       </c>
       <c r="B85">
-        <v>1.0131381</v>
-      </c>
-      <c r="C85">
         <v>0.001689320475304568</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>41973</v>
       </c>
       <c r="B86">
-        <v>1.0381371</v>
-      </c>
-      <c r="C86">
         <v>0.01241792602305836</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>42004</v>
       </c>
       <c r="B87">
-        <v>1.0988867</v>
-      </c>
-      <c r="C87">
         <v>0.02980643451316389</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42035</v>
       </c>
       <c r="B88">
-        <v>1.1345178</v>
-      </c>
-      <c r="C88">
         <v>0.01697619028221009</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42063</v>
       </c>
       <c r="B89">
-        <v>1.1606076</v>
-      </c>
-      <c r="C89">
         <v>0.01222280741814386</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>42094</v>
       </c>
       <c r="B90">
-        <v>1.2234565</v>
-      </c>
-      <c r="C90">
         <v>0.02908853046707782</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>42124</v>
       </c>
       <c r="B91">
-        <v>1.2545928</v>
-      </c>
-      <c r="C91">
         <v>0.014003557074312</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>42155</v>
       </c>
       <c r="B92">
-        <v>1.2812974</v>
-      </c>
-      <c r="C92">
         <v>0.01184453352286052</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>42185</v>
       </c>
       <c r="B93">
-        <v>1.2989999</v>
-      </c>
-      <c r="C93">
         <v>0.007759838765432292</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>42216</v>
       </c>
       <c r="B94">
-        <v>1.3407131</v>
-      </c>
-      <c r="C94">
         <v>0.01814406342514396</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>42247</v>
       </c>
       <c r="B95">
-        <v>1.3630017</v>
-      </c>
-      <c r="C95">
         <v>0.00952214092363568</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>42277</v>
       </c>
       <c r="B96">
-        <v>1.3857809</v>
-      </c>
-      <c r="C96">
         <v>0.009639942281886693</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>42308</v>
       </c>
       <c r="B97">
-        <v>1.4597185</v>
-      </c>
-      <c r="C97">
         <v>0.03099094304929695</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>42338</v>
       </c>
       <c r="B98">
-        <v>1.4885737</v>
-      </c>
-      <c r="C98">
         <v>0.01173109849765308</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>42369</v>
       </c>
       <c r="B99">
-        <v>1.5561192</v>
-      </c>
-      <c r="C99">
         <v>0.02714225421573824</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>42400</v>
       </c>
       <c r="B100">
-        <v>1.6469018</v>
-      </c>
-      <c r="C100">
         <v>0.0355157928472194</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>42429</v>
       </c>
       <c r="B101">
-        <v>1.6919585</v>
-      </c>
-      <c r="C101">
         <v>0.01702242977053392</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>42460</v>
       </c>
       <c r="B102">
-        <v>1.6970248</v>
-      </c>
-      <c r="C102">
         <v>0.001882012668471544</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>42490</v>
       </c>
       <c r="B103">
-        <v>1.7616273</v>
-      </c>
-      <c r="C103">
         <v>0.02395324655524123</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>42521</v>
       </c>
       <c r="B104">
-        <v>1.7772144</v>
-      </c>
-      <c r="C104">
         <v>0.005644172187898144</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>42551</v>
       </c>
       <c r="B105">
-        <v>1.7877173</v>
-      </c>
-      <c r="C105">
         <v>0.00378181101178221</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>42582</v>
       </c>
       <c r="B106">
-        <v>1.8148054</v>
-      </c>
-      <c r="C106">
         <v>0.009716946549781058</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>42613</v>
       </c>
       <c r="B107">
-        <v>1.8567367</v>
-      </c>
-      <c r="C107">
         <v>0.01489669587815912</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>42643</v>
       </c>
       <c r="B108">
-        <v>1.8948042</v>
-      </c>
-      <c r="C108">
         <v>0.01332551928919457</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>42674</v>
       </c>
       <c r="B109">
-        <v>1.8802321</v>
-      </c>
-      <c r="C109">
         <v>-0.005033881047982303</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>42704</v>
       </c>
       <c r="B110">
-        <v>1.9223223</v>
-      </c>
-      <c r="C110">
         <v>0.01461347507376209</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>42735</v>
       </c>
       <c r="B111">
-        <v>1.9588406</v>
-      </c>
-      <c r="C111">
         <v>0.01249632869037076</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>42766</v>
       </c>
       <c r="B112">
-        <v>1.9538779</v>
-      </c>
-      <c r="C112">
         <v>-0.001677244796492117</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>42794</v>
       </c>
       <c r="B113">
-        <v>1.943651</v>
-      </c>
-      <c r="C113">
         <v>-0.003462194561257959</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>42825</v>
       </c>
       <c r="B114">
-        <v>1.9613205</v>
-      </c>
-      <c r="C114">
         <v>0.006002579789519791</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>42855</v>
       </c>
       <c r="B115">
-        <v>2.0195606</v>
-      </c>
-      <c r="C115">
         <v>0.01966693574707645</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>42886</v>
       </c>
       <c r="B116">
-        <v>2.0903222</v>
-      </c>
-      <c r="C116">
         <v>0.02343440300552335</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>42916</v>
       </c>
       <c r="B117">
-        <v>2.111326</v>
-      </c>
-      <c r="C117">
         <v>0.006796637580379183</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>42947</v>
       </c>
       <c r="B118">
-        <v>2.1466437</v>
-      </c>
-      <c r="C118">
         <v>0.01135133380430076</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>42978</v>
       </c>
       <c r="B119">
-        <v>2.1931324</v>
-      </c>
-      <c r="C119">
         <v>0.01477405910303742</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>43008</v>
       </c>
       <c r="B120">
-        <v>2.2235541</v>
-      </c>
-      <c r="C120">
         <v>0.00952722787191651</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43039</v>
       </c>
       <c r="B121">
-        <v>2.2361893</v>
-      </c>
-      <c r="C121">
         <v>0.003919648812470644</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43069</v>
       </c>
       <c r="B122">
-        <v>2.2696639</v>
-      </c>
-      <c r="C122">
         <v>0.01034383248223447</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>43100</v>
       </c>
       <c r="B123">
-        <v>2.2709707</v>
-      </c>
-      <c r="C123">
         <v>0.0003996741071765619</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>43131</v>
       </c>
       <c r="B124">
-        <v>2.2976719</v>
-      </c>
-      <c r="C124">
         <v>0.008163081375201608</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>43159</v>
       </c>
       <c r="B125">
-        <v>2.3099718</v>
-      </c>
-      <c r="C125">
         <v>0.003729873793690608</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>43190</v>
       </c>
       <c r="B126">
-        <v>2.344311</v>
-      </c>
-      <c r="C126">
         <v>0.01037446905136763</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>43220</v>
       </c>
       <c r="B127">
-        <v>2.3547099</v>
-      </c>
-      <c r="C127">
         <v>0.003109429715119294</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>43251</v>
       </c>
       <c r="B128">
-        <v>2.3547001</v>
-      </c>
-      <c r="C128">
         <v>-2.921266008759638e-06</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>43281</v>
       </c>
       <c r="B129">
-        <v>2.4134988</v>
-      </c>
-      <c r="C129">
         <v>0.01752725973925351</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>43312</v>
       </c>
       <c r="B130">
-        <v>2.4697531</v>
-      </c>
-      <c r="C130">
         <v>0.0164799530616504</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>43343</v>
       </c>
       <c r="B131">
-        <v>2.4759286</v>
-      </c>
-      <c r="C131">
         <v>0.001779809635446439</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>43373</v>
       </c>
       <c r="B132">
-        <v>2.505842</v>
-      </c>
-      <c r="C132">
         <v>0.008605872974490891</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>43404</v>
       </c>
       <c r="B133">
-        <v>2.5241133</v>
-      </c>
-      <c r="C133">
         <v>0.0052116724028064</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>43434</v>
       </c>
       <c r="B134">
-        <v>2.5116448</v>
-      </c>
-      <c r="C134">
         <v>-0.003538053104024663</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>43465</v>
       </c>
       <c r="B135">
-        <v>2.4631189</v>
-      </c>
-      <c r="C135">
         <v>-0.01381856729928954</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>43496</v>
       </c>
       <c r="B136">
-        <v>2.5161858</v>
-      </c>
-      <c r="C136">
         <v>0.01532344153704912</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>43524</v>
       </c>
       <c r="B137">
-        <v>2.5149152</v>
-      </c>
-      <c r="C137">
         <v>-0.0003613574686526233</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>43555</v>
       </c>
       <c r="B138">
-        <v>2.486975</v>
-      </c>
-      <c r="C138">
         <v>-0.007949039567156535</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>43585</v>
       </c>
       <c r="B139">
-        <v>2.5102139</v>
-      </c>
-      <c r="C139">
         <v>0.006664487127094443</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>43616</v>
       </c>
       <c r="B140">
-        <v>2.5364844</v>
-      </c>
-      <c r="C140">
         <v>0.007484016857206344</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>43646</v>
       </c>
       <c r="B141">
-        <v>2.5283352</v>
-      </c>
-      <c r="C141">
         <v>-0.002304322337743137</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>43677</v>
       </c>
       <c r="B142">
-        <v>2.5693642</v>
-      </c>
-      <c r="C142">
         <v>0.01162843031467076</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>43708</v>
       </c>
       <c r="B143">
-        <v>2.6041084</v>
-      </c>
-      <c r="C143">
         <v>0.009734002487053584</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>43738</v>
       </c>
       <c r="B144">
-        <v>2.6475132</v>
-      </c>
-      <c r="C144">
         <v>0.01204314498420755</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>43769</v>
       </c>
       <c r="B145">
-        <v>2.6461346</v>
-      </c>
-      <c r="C145">
         <v>-0.0003779561373487006</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>43799</v>
       </c>
       <c r="B146">
-        <v>2.6633514</v>
-      </c>
-      <c r="C146">
         <v>0.004721932097624615</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>43830</v>
       </c>
       <c r="B147">
-        <v>2.7306811</v>
-      </c>
-      <c r="C147">
         <v>0.01837926331609907</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>43861</v>
       </c>
       <c r="B148">
-        <v>2.7535957</v>
-      </c>
-      <c r="C148">
         <v>0.006142202827253085</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>43890</v>
       </c>
       <c r="B149">
-        <v>2.7927419</v>
-      </c>
-      <c r="C149">
         <v>0.01042898679791215</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>43921</v>
       </c>
       <c r="B150">
-        <v>2.8688258</v>
-      </c>
-      <c r="C150">
         <v>0.02006039482939759</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>43951</v>
       </c>
       <c r="B151">
-        <v>2.9508618</v>
-      </c>
-      <c r="C151">
         <v>0.02120436645144363</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>43982</v>
       </c>
       <c r="B152">
-        <v>2.9576811</v>
-      </c>
-      <c r="C152">
         <v>0.001726028483203246</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>44012</v>
       </c>
       <c r="B153">
-        <v>2.9761138</v>
-      </c>
-      <c r="C153">
         <v>0.004657449535284686</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>44043</v>
       </c>
       <c r="B154">
-        <v>2.9715723</v>
-      </c>
-      <c r="C154">
         <v>-0.001142195678604518</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>44074</v>
       </c>
       <c r="B155">
-        <v>3.0407241</v>
-      </c>
-      <c r="C155">
         <v>0.01741169360054218</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>44104</v>
       </c>
       <c r="B156">
-        <v>3.0272399</v>
-      </c>
-      <c r="C156">
         <v>-0.00333707515442605</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>44135</v>
       </c>
       <c r="B157">
-        <v>2.9917331</v>
-      </c>
-      <c r="C157">
         <v>-0.008816658774164376</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>44165</v>
       </c>
       <c r="B158">
-        <v>3.0247261</v>
-      </c>
-      <c r="C158">
-        <v>0.008265332168626127</v>
+        <v>0.008616006916895458</v>
       </c>
     </row>
   </sheetData>
